--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1898637.23833291</v>
+        <v>1896177.814353506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9377516.541974479</v>
+        <v>9377516.541974483</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9995691.885090504</v>
+        <v>9995691.885090502</v>
       </c>
     </row>
     <row r="11">
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.772948131658792</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.64648667473801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.333083839987916</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.58908527899021</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.46513102070164</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>15.28738762568308</v>
+        <v>13.46513102070165</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.888679035833067</v>
+        <v>1.888679035832876</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.57645198486877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57645198486858</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>177.5799356986858</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>131.9824884213393</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1430,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>125.3869315776577</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,7 +1667,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>161.5480126450912</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,7 +1844,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020903</v>
@@ -1853,13 +1853,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>223.2287695811321</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>49.27973129070089</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598764</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2056,7 +2056,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2065,7 +2065,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
         <v>171.6095167335022</v>
@@ -2081,10 +2081,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>317.6116071177211</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>171.0357654601039</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
@@ -2093,10 +2093,10 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988204</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2293,7 +2293,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2302,7 +2302,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
         <v>171.6095167335022</v>
@@ -2318,7 +2318,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
         <v>307.7079050020903</v>
@@ -2333,7 +2333,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2479,22 +2479,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2539,7 +2539,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2570,10 +2570,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>137.3439741618276</v>
+        <v>253.2882401841252</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.1578516202944</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>66.23125412673288</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,10 +3004,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>378.7786887369637</v>
+        <v>378.7786887369638</v>
       </c>
       <c r="C32" t="n">
         <v>361.3177388444907</v>
       </c>
       <c r="D32" t="n">
-        <v>350.7278886941661</v>
+        <v>350.7278886941662</v>
       </c>
       <c r="E32" t="n">
-        <v>377.9752171457449</v>
+        <v>377.975217145745</v>
       </c>
       <c r="F32" t="n">
         <v>402.9208928151946</v>
@@ -3044,10 +3044,10 @@
         <v>406.9665727269366</v>
       </c>
       <c r="H32" t="n">
-        <v>290.6526114608036</v>
+        <v>290.6526114608037</v>
       </c>
       <c r="I32" t="n">
-        <v>37.62177684640913</v>
+        <v>37.6217768464092</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>105.232608861659</v>
+        <v>105.2326088616591</v>
       </c>
       <c r="T32" t="n">
-        <v>199.9628172131033</v>
+        <v>199.9628172131034</v>
       </c>
       <c r="U32" t="n">
-        <v>247.0400190323851</v>
+        <v>247.0400190323852</v>
       </c>
       <c r="V32" t="n">
-        <v>323.797105543618</v>
+        <v>323.7971055436181</v>
       </c>
       <c r="W32" t="n">
         <v>345.2858157908962</v>
@@ -3095,7 +3095,7 @@
         <v>365.7759477519522</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2827857295367</v>
+        <v>382.2827857295368</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>175.8768272554205</v>
       </c>
       <c r="C34" t="n">
-        <v>163.291668172111</v>
+        <v>163.2916681721111</v>
       </c>
       <c r="D34" t="n">
-        <v>144.6603200916955</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4788097200523</v>
+        <v>142.4788097200524</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0706553325114</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.799861987804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>92.39726748332127</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.81908872038711</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.8138724049251</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>215.5937963496524</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.2566852790961</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>248.1824903973112</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>282.5678454100742</v>
       </c>
       <c r="X34" t="n">
-        <v>221.7545024625203</v>
+        <v>221.7545024625204</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.629500425578</v>
+        <v>141.1835453597399</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="C8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="D8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="E8" t="n">
-        <v>37.29048841619594</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="F8" t="n">
-        <v>27.41882363674262</v>
+        <v>16.6647966925628</v>
       </c>
       <c r="G8" t="n">
-        <v>11.97701795423446</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="H8" t="n">
-        <v>11.97701795423446</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="I8" t="n">
-        <v>11.97701795423446</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="J8" t="n">
         <v>1.222991010054646</v>
       </c>
       <c r="K8" t="n">
-        <v>1.222991010054646</v>
+        <v>15.74600925445357</v>
       </c>
       <c r="L8" t="n">
-        <v>1.222991010054646</v>
+        <v>30.88052300387981</v>
       </c>
       <c r="M8" t="n">
-        <v>15.74600925445356</v>
+        <v>30.88052300387981</v>
       </c>
       <c r="N8" t="n">
-        <v>30.88052300387981</v>
+        <v>46.01503675330605</v>
       </c>
       <c r="O8" t="n">
-        <v>46.01503675330606</v>
+        <v>46.01503675330605</v>
       </c>
       <c r="P8" t="n">
-        <v>61.1495505027323</v>
+        <v>61.14955050273229</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.7322940987041</v>
+        <v>61.14955050273229</v>
       </c>
       <c r="R8" t="n">
-        <v>52.7322940987041</v>
+        <v>45.70774482022414</v>
       </c>
       <c r="S8" t="n">
-        <v>52.7322940987041</v>
+        <v>45.70774482022414</v>
       </c>
       <c r="T8" t="n">
-        <v>52.7322940987041</v>
+        <v>30.26593913771598</v>
       </c>
       <c r="U8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="V8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="W8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="X8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
       <c r="Y8" t="n">
-        <v>52.7322940987041</v>
+        <v>23.61029744176627</v>
       </c>
     </row>
     <row r="9">
@@ -4881,52 +4881,52 @@
         <v>1.222991010054646</v>
       </c>
       <c r="J9" t="n">
+        <v>1.25204654459053</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.25204654459053</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16.38656029401677</v>
+      </c>
+      <c r="M9" t="n">
+        <v>31.52107404344302</v>
+      </c>
+      <c r="N9" t="n">
+        <v>46.65558779286926</v>
+      </c>
+      <c r="O9" t="n">
+        <v>46.65558779286926</v>
+      </c>
+      <c r="P9" t="n">
+        <v>61.14955050273229</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>61.14955050273229</v>
+      </c>
+      <c r="R9" t="n">
+        <v>61.14955050273229</v>
+      </c>
+      <c r="S9" t="n">
+        <v>47.54840805757911</v>
+      </c>
+      <c r="T9" t="n">
+        <v>32.10660237507096</v>
+      </c>
+      <c r="U9" t="n">
+        <v>16.6647966925628</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.222991010054646</v>
       </c>
-      <c r="K9" t="n">
-        <v>16.35750475948089</v>
-      </c>
-      <c r="L9" t="n">
-        <v>31.49201850890714</v>
-      </c>
-      <c r="M9" t="n">
-        <v>46.01503675330606</v>
-      </c>
-      <c r="N9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="O9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="P9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="R9" t="n">
-        <v>61.1495505027323</v>
-      </c>
-      <c r="S9" t="n">
-        <v>45.70774482022414</v>
-      </c>
-      <c r="T9" t="n">
-        <v>45.70774482022414</v>
-      </c>
-      <c r="U9" t="n">
-        <v>45.70774482022414</v>
-      </c>
-      <c r="V9" t="n">
-        <v>45.70774482022414</v>
-      </c>
       <c r="W9" t="n">
-        <v>45.70774482022414</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="X9" t="n">
-        <v>30.26593913771598</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.82413345520782</v>
+        <v>1.222991010054646</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="C10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="D10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="E10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="F10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="G10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="H10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="I10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="J10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="K10" t="n">
         <v>1.222991010054646</v>
@@ -4969,43 +4969,43 @@
         <v>16.35750475948089</v>
       </c>
       <c r="M10" t="n">
-        <v>31.49201850890714</v>
+        <v>30.88052300387981</v>
       </c>
       <c r="N10" t="n">
-        <v>46.62653225833338</v>
+        <v>46.01503675330605</v>
       </c>
       <c r="O10" t="n">
-        <v>61.1495505027323</v>
+        <v>61.14955050273229</v>
       </c>
       <c r="P10" t="n">
-        <v>59.24179390088072</v>
+        <v>59.2417939008809</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.79998821837256</v>
+        <v>43.79998821837275</v>
       </c>
       <c r="R10" t="n">
-        <v>43.79998821837256</v>
+        <v>32.10660237507096</v>
       </c>
       <c r="S10" t="n">
-        <v>43.79998821837256</v>
+        <v>32.10660237507096</v>
       </c>
       <c r="T10" t="n">
-        <v>43.79998821837256</v>
+        <v>16.6647966925628</v>
       </c>
       <c r="U10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="V10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="W10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="X10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.10660237507096</v>
+        <v>1.222991010054646</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1905.969312291667</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C11" t="n">
-        <v>1584.456428299328</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="D11" t="n">
-        <v>1273.640362640651</v>
+        <v>1206.296085795151</v>
       </c>
       <c r="E11" t="n">
-        <v>935.3017429904801</v>
+        <v>867.9574661449806</v>
       </c>
       <c r="F11" t="n">
-        <v>571.7654711489458</v>
+        <v>688.5837937220653</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1426539420154</v>
+        <v>320.9609765151351</v>
       </c>
       <c r="H11" t="n">
         <v>70.82700907197574</v>
@@ -5039,52 +5039,52 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J11" t="n">
-        <v>406.0766237065731</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K11" t="n">
-        <v>739.8959973964195</v>
+        <v>593.5255137208476</v>
       </c>
       <c r="L11" t="n">
-        <v>1190.930210644828</v>
+        <v>1045.797625565775</v>
       </c>
       <c r="M11" t="n">
-        <v>1724.462115316752</v>
+        <v>1579.329530237699</v>
       </c>
       <c r="N11" t="n">
-        <v>2271.240932375535</v>
+        <v>2126.108347296481</v>
       </c>
       <c r="O11" t="n">
-        <v>2774.213403254872</v>
+        <v>2629.080818175818</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.987769612049</v>
+        <v>3023.855184532996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3417.274131367732</v>
+        <v>3482.333387041984</v>
       </c>
       <c r="R11" t="n">
         <v>3541.350453598787</v>
       </c>
       <c r="S11" t="n">
-        <v>3541.350453598787</v>
+        <v>3478.509418073955</v>
       </c>
       <c r="T11" t="n">
-        <v>3382.822338931082</v>
+        <v>3319.98130340625</v>
       </c>
       <c r="U11" t="n">
-        <v>3176.741495152992</v>
+        <v>3113.90045962816</v>
       </c>
       <c r="V11" t="n">
-        <v>2893.128240757494</v>
+        <v>2830.287205232663</v>
       </c>
       <c r="W11" t="n">
-        <v>2587.809218435454</v>
+        <v>2524.968182910622</v>
       </c>
       <c r="X11" t="n">
-        <v>2587.809218435454</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.119519407715</v>
+        <v>1856.262358569877</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J12" t="n">
-        <v>164.5042785625936</v>
+        <v>164.504278562593</v>
       </c>
       <c r="K12" t="n">
-        <v>402.7684775429407</v>
+        <v>402.7684775429401</v>
       </c>
       <c r="L12" t="n">
-        <v>769.466637855606</v>
+        <v>769.4666378556053</v>
       </c>
       <c r="M12" t="n">
         <v>1216.742963077922</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7811424450869</v>
+        <v>763.7811424450863</v>
       </c>
       <c r="C13" t="n">
-        <v>642.2945924652532</v>
+        <v>642.2945924652527</v>
       </c>
       <c r="D13" t="n">
-        <v>539.6275860009908</v>
+        <v>539.6275860009903</v>
       </c>
       <c r="E13" t="n">
-        <v>439.164125366671</v>
+        <v>439.1641253666705</v>
       </c>
       <c r="F13" t="n">
-        <v>339.7238108168337</v>
+        <v>339.7238108168335</v>
       </c>
       <c r="G13" t="n">
-        <v>219.4706071396261</v>
+        <v>219.4706071396258</v>
       </c>
       <c r="H13" t="n">
         <v>120.7030533055571</v>
@@ -5200,10 +5200,10 @@
         <v>162.4550267713179</v>
       </c>
       <c r="K13" t="n">
-        <v>412.9475949726007</v>
+        <v>412.9475949726008</v>
       </c>
       <c r="L13" t="n">
-        <v>776.0127786735034</v>
+        <v>776.0127786735036</v>
       </c>
       <c r="M13" t="n">
         <v>1166.675209525459</v>
@@ -5218,31 +5218,31 @@
         <v>2179.536841342616</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.652522747538</v>
+        <v>2303.652522747537</v>
       </c>
       <c r="R13" t="n">
-        <v>2261.271698453139</v>
+        <v>2261.271698453138</v>
       </c>
       <c r="S13" t="n">
-        <v>2117.035447228039</v>
+        <v>2117.035447228038</v>
       </c>
       <c r="T13" t="n">
-        <v>1942.718464745638</v>
+        <v>1942.718464745637</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.065230819355</v>
+        <v>1701.065230819354</v>
       </c>
       <c r="V13" t="n">
         <v>1493.830375561541</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.862838472654</v>
+        <v>1251.862838472653</v>
       </c>
       <c r="X13" t="n">
-        <v>1071.32292052271</v>
+        <v>1071.322920522709</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.9799743272533</v>
+        <v>897.9799743272526</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1659.251363023252</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C14" t="n">
-        <v>1337.738479030914</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="D14" t="n">
-        <v>1026.922413372236</v>
+        <v>1390.45868521377</v>
       </c>
       <c r="E14" t="n">
-        <v>688.5837937220655</v>
+        <v>1052.120065563599</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5837937220655</v>
+        <v>688.5837937220653</v>
       </c>
       <c r="G14" t="n">
         <v>320.9609765151353</v>
@@ -5276,28 +5276,28 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J14" t="n">
-        <v>406.0766237065731</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K14" t="n">
-        <v>739.8959973964195</v>
+        <v>593.5255137208476</v>
       </c>
       <c r="L14" t="n">
-        <v>1190.930210644828</v>
+        <v>1044.559726969256</v>
       </c>
       <c r="M14" t="n">
-        <v>1724.462115316752</v>
+        <v>1578.09163164118</v>
       </c>
       <c r="N14" t="n">
-        <v>2271.240932375535</v>
+        <v>2124.870448699962</v>
       </c>
       <c r="O14" t="n">
-        <v>2774.213403254872</v>
+        <v>2839.272658929124</v>
       </c>
       <c r="P14" t="n">
-        <v>3168.987769612049</v>
+        <v>3234.047025286302</v>
       </c>
       <c r="Q14" t="n">
-        <v>3417.274131367732</v>
+        <v>3482.333387041984</v>
       </c>
       <c r="R14" t="n">
         <v>3541.350453598787</v>
@@ -5315,13 +5315,13 @@
         <v>2830.287205232663</v>
       </c>
       <c r="W14" t="n">
-        <v>2667.107394480046</v>
+        <v>2524.968182910622</v>
       </c>
       <c r="X14" t="n">
-        <v>2341.091269167039</v>
+        <v>2198.952057597615</v>
       </c>
       <c r="Y14" t="n">
-        <v>1998.4015701393</v>
+        <v>1856.262358569877</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>402.7684775429401</v>
       </c>
       <c r="L15" t="n">
-        <v>769.4666378556053</v>
+        <v>769.466637855606</v>
       </c>
       <c r="M15" t="n">
-        <v>1216.742963077921</v>
+        <v>1216.742963077922</v>
       </c>
       <c r="N15" t="n">
         <v>1690.266006632376</v>
       </c>
       <c r="O15" t="n">
-        <v>2101.22728605043</v>
+        <v>2101.227286050431</v>
       </c>
       <c r="P15" t="n">
         <v>2411.726877526534</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7811424450867</v>
+        <v>763.7811424450865</v>
       </c>
       <c r="C16" t="n">
-        <v>642.2945924652531</v>
+        <v>642.2945924652529</v>
       </c>
       <c r="D16" t="n">
-        <v>539.6275860009907</v>
+        <v>539.6275860009905</v>
       </c>
       <c r="E16" t="n">
         <v>439.1641253666708</v>
       </c>
       <c r="F16" t="n">
-        <v>339.7238108168334</v>
+        <v>339.7238108168337</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4706071396257</v>
+        <v>219.470607139626</v>
       </c>
       <c r="H16" t="n">
-        <v>120.7030533055568</v>
+        <v>120.7030533055571</v>
       </c>
       <c r="I16" t="n">
         <v>70.82700907197574</v>
       </c>
       <c r="J16" t="n">
-        <v>162.4550267713179</v>
+        <v>162.4550267713178</v>
       </c>
       <c r="K16" t="n">
-        <v>412.9475949726007</v>
+        <v>412.9475949726009</v>
       </c>
       <c r="L16" t="n">
-        <v>776.0127786735034</v>
+        <v>776.0127786735036</v>
       </c>
       <c r="M16" t="n">
         <v>1166.675209525459</v>
@@ -5479,7 +5479,7 @@
         <v>1071.32292052271</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.9799743272531</v>
+        <v>897.9799743272529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.431173775869</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C17" t="n">
-        <v>1500.918289783531</v>
+        <v>1195.59926746149</v>
       </c>
       <c r="D17" t="n">
-        <v>1190.102224124854</v>
+        <v>884.7832018028132</v>
       </c>
       <c r="E17" t="n">
-        <v>851.763604474683</v>
+        <v>546.4445821526423</v>
       </c>
       <c r="F17" t="n">
-        <v>488.2273326331488</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="G17" t="n">
-        <v>120.6045154262191</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="H17" t="n">
         <v>70.82700907197574</v>
@@ -5513,28 +5513,28 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J17" t="n">
-        <v>259.7061400310012</v>
+        <v>427.1117890513542</v>
       </c>
       <c r="K17" t="n">
-        <v>593.5255137208476</v>
+        <v>760.9311627412005</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.559726969256</v>
+        <v>1255.989466319081</v>
       </c>
       <c r="M17" t="n">
-        <v>1578.09163164118</v>
+        <v>1789.521370991005</v>
       </c>
       <c r="N17" t="n">
-        <v>2124.870448699962</v>
+        <v>2336.300188049787</v>
       </c>
       <c r="O17" t="n">
-        <v>2774.213403254872</v>
+        <v>2839.272658929124</v>
       </c>
       <c r="P17" t="n">
-        <v>3168.987769612049</v>
+        <v>3234.047025286302</v>
       </c>
       <c r="Q17" t="n">
-        <v>3417.274131367732</v>
+        <v>3482.333387041984</v>
       </c>
       <c r="R17" t="n">
         <v>3541.350453598787</v>
@@ -5549,16 +5549,16 @@
         <v>3113.90045962816</v>
       </c>
       <c r="V17" t="n">
-        <v>2830.287205232662</v>
+        <v>2830.287205232663</v>
       </c>
       <c r="W17" t="n">
-        <v>2830.287205232662</v>
+        <v>2524.968182910622</v>
       </c>
       <c r="X17" t="n">
-        <v>2504.271079919656</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y17" t="n">
-        <v>2161.581380891918</v>
+        <v>1856.262358569877</v>
       </c>
     </row>
     <row r="18">
@@ -5607,10 +5607,10 @@
         <v>1690.266006632376</v>
       </c>
       <c r="O18" t="n">
-        <v>2101.22728605043</v>
+        <v>2101.227286050431</v>
       </c>
       <c r="P18" t="n">
-        <v>2411.726877526533</v>
+        <v>2411.726877526534</v>
       </c>
       <c r="Q18" t="n">
         <v>2569.368435173134</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7811424450864</v>
+        <v>763.7811424450865</v>
       </c>
       <c r="C19" t="n">
-        <v>642.2945924652528</v>
+        <v>642.2945924652529</v>
       </c>
       <c r="D19" t="n">
-        <v>539.6275860009904</v>
+        <v>539.6275860009905</v>
       </c>
       <c r="E19" t="n">
-        <v>439.1641253666706</v>
+        <v>439.1641253666708</v>
       </c>
       <c r="F19" t="n">
-        <v>339.7238108168336</v>
+        <v>339.7238108168337</v>
       </c>
       <c r="G19" t="n">
-        <v>219.4706071396259</v>
+        <v>219.470607139626</v>
       </c>
       <c r="H19" t="n">
         <v>120.7030533055571</v>
@@ -5677,19 +5677,19 @@
         <v>412.9475949726009</v>
       </c>
       <c r="L19" t="n">
-        <v>776.0127786735037</v>
+        <v>776.0127786735036</v>
       </c>
       <c r="M19" t="n">
-        <v>1166.675209525458</v>
+        <v>1166.675209525459</v>
       </c>
       <c r="N19" t="n">
-        <v>1554.588971483729</v>
+        <v>1554.58897148373</v>
       </c>
       <c r="O19" t="n">
-        <v>1900.423955656549</v>
+        <v>1900.42395565655</v>
       </c>
       <c r="P19" t="n">
-        <v>2179.536841342615</v>
+        <v>2179.536841342616</v>
       </c>
       <c r="Q19" t="n">
         <v>2303.652522747537</v>
@@ -5701,22 +5701,22 @@
         <v>2117.035447228038</v>
       </c>
       <c r="T19" t="n">
-        <v>1942.718464745637</v>
+        <v>1942.718464745638</v>
       </c>
       <c r="U19" t="n">
-        <v>1701.065230819354</v>
+        <v>1701.065230819355</v>
       </c>
       <c r="V19" t="n">
         <v>1493.830375561541</v>
       </c>
       <c r="W19" t="n">
-        <v>1251.862838472653</v>
+        <v>1251.862838472654</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.322920522709</v>
+        <v>1071.32292052271</v>
       </c>
       <c r="Y19" t="n">
-        <v>897.9799743272528</v>
+        <v>897.9799743272529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022.094556041862</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C20" t="n">
-        <v>1701.274750872447</v>
+        <v>1195.599267461491</v>
       </c>
       <c r="D20" t="n">
-        <v>1390.45868521377</v>
+        <v>1022.83586800684</v>
       </c>
       <c r="E20" t="n">
-        <v>1052.120065563599</v>
+        <v>684.4972483566694</v>
       </c>
       <c r="F20" t="n">
-        <v>688.583793722065</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="G20" t="n">
-        <v>320.9609765151352</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="H20" t="n">
         <v>70.82700907197574</v>
@@ -5750,52 +5750,52 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J20" t="n">
-        <v>406.0766237065731</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K20" t="n">
-        <v>739.8959973964195</v>
+        <v>593.5255137208476</v>
       </c>
       <c r="L20" t="n">
-        <v>1190.930210644828</v>
+        <v>1044.559726969256</v>
       </c>
       <c r="M20" t="n">
-        <v>1724.462115316752</v>
+        <v>1578.09163164118</v>
       </c>
       <c r="N20" t="n">
-        <v>2271.240932375535</v>
+        <v>2124.870448699962</v>
       </c>
       <c r="O20" t="n">
-        <v>2774.213403254872</v>
+        <v>2839.272658929124</v>
       </c>
       <c r="P20" t="n">
-        <v>3168.987769612049</v>
+        <v>3234.047025286302</v>
       </c>
       <c r="Q20" t="n">
-        <v>3417.274131367732</v>
+        <v>3482.333387041984</v>
       </c>
       <c r="R20" t="n">
         <v>3541.350453598787</v>
       </c>
       <c r="S20" t="n">
-        <v>3541.350453598787</v>
+        <v>3478.509418073955</v>
       </c>
       <c r="T20" t="n">
-        <v>3541.350453598787</v>
+        <v>3319.98130340625</v>
       </c>
       <c r="U20" t="n">
-        <v>3335.269609820697</v>
+        <v>3113.900459628161</v>
       </c>
       <c r="V20" t="n">
-        <v>3335.269609820697</v>
+        <v>2830.287205232663</v>
       </c>
       <c r="W20" t="n">
-        <v>3029.950587498656</v>
+        <v>2524.968182910622</v>
       </c>
       <c r="X20" t="n">
-        <v>2703.934462185649</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y20" t="n">
-        <v>2361.244763157911</v>
+        <v>1856.262358569877</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J21" t="n">
-        <v>164.5042785625936</v>
+        <v>164.504278562593</v>
       </c>
       <c r="K21" t="n">
-        <v>402.7684775429407</v>
+        <v>402.7684775429401</v>
       </c>
       <c r="L21" t="n">
-        <v>769.466637855606</v>
+        <v>769.4666378556053</v>
       </c>
       <c r="M21" t="n">
         <v>1216.742963077922</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7811424450864</v>
+        <v>763.7811424450865</v>
       </c>
       <c r="C22" t="n">
-        <v>642.2945924652528</v>
+        <v>642.2945924652529</v>
       </c>
       <c r="D22" t="n">
-        <v>539.6275860009904</v>
+        <v>539.6275860009905</v>
       </c>
       <c r="E22" t="n">
-        <v>439.1641253666706</v>
+        <v>439.1641253666708</v>
       </c>
       <c r="F22" t="n">
-        <v>339.7238108168336</v>
+        <v>339.7238108168337</v>
       </c>
       <c r="G22" t="n">
-        <v>219.4706071396259</v>
+        <v>219.470607139626</v>
       </c>
       <c r="H22" t="n">
         <v>120.7030533055571</v>
@@ -5908,25 +5908,25 @@
         <v>70.82700907197574</v>
       </c>
       <c r="J22" t="n">
-        <v>162.4550267713169</v>
+        <v>162.4550267713179</v>
       </c>
       <c r="K22" t="n">
-        <v>412.9475949725999</v>
+        <v>412.9475949726004</v>
       </c>
       <c r="L22" t="n">
-        <v>776.0127786735027</v>
+        <v>776.0127786735031</v>
       </c>
       <c r="M22" t="n">
-        <v>1166.675209525458</v>
+        <v>1166.675209525459</v>
       </c>
       <c r="N22" t="n">
-        <v>1554.588971483729</v>
+        <v>1554.58897148373</v>
       </c>
       <c r="O22" t="n">
-        <v>1900.423955656549</v>
+        <v>1900.42395565655</v>
       </c>
       <c r="P22" t="n">
-        <v>2179.536841342615</v>
+        <v>2179.536841342616</v>
       </c>
       <c r="Q22" t="n">
         <v>2303.652522747537</v>
@@ -5938,22 +5938,22 @@
         <v>2117.035447228038</v>
       </c>
       <c r="T22" t="n">
-        <v>1942.718464745637</v>
+        <v>1942.718464745638</v>
       </c>
       <c r="U22" t="n">
-        <v>1701.065230819354</v>
+        <v>1701.065230819355</v>
       </c>
       <c r="V22" t="n">
         <v>1493.830375561541</v>
       </c>
       <c r="W22" t="n">
-        <v>1251.862838472653</v>
+        <v>1251.862838472654</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.322920522709</v>
+        <v>1071.32292052271</v>
       </c>
       <c r="Y22" t="n">
-        <v>897.9799743272528</v>
+        <v>897.9799743272529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>792.1780824632704</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1243.212295711679</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1776.744200383603</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2323.523017442385</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O23" t="n">
-        <v>2826.495488321722</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
@@ -6084,7 +6084,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q24" t="n">
         <v>2579.688342997847</v>
@@ -6142,19 +6142,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6175,7 +6175,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6184,10 +6184,10 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
         <v>908.2998821519661</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001587</v>
@@ -6221,34 +6221,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>907.9024249011973</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1772.421240554552</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2750.97154338438</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443162</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>360.5895482553301</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>360.5895482553301</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>360.5895482553301</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,16 +6397,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1314.329222226434</v>
+        <v>1197.213802001892</v>
       </c>
       <c r="V28" t="n">
-        <v>1059.644734020548</v>
+        <v>942.5293137960051</v>
       </c>
       <c r="W28" t="n">
-        <v>770.2275639835869</v>
+        <v>653.1121437590446</v>
       </c>
       <c r="X28" t="n">
-        <v>542.2380130855698</v>
+        <v>425.1225928610272</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.2380130855698</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551616</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277728</v>
@@ -6467,46 +6467,46 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846823</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518747</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.23671557753</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
@@ -6552,13 +6552,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>855.6340846510825</v>
+        <v>460.4910241367928</v>
       </c>
       <c r="C31" t="n">
-        <v>686.6979017231756</v>
+        <v>460.4910241367928</v>
       </c>
       <c r="D31" t="n">
-        <v>536.58126231084</v>
+        <v>310.3743847244571</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6681687284469</v>
+        <v>162.461291142064</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>162.461291142064</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>162.461291142064</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W31" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="X31" t="n">
-        <v>1225.070958360566</v>
+        <v>681.283603280323</v>
       </c>
       <c r="Y31" t="n">
-        <v>1004.278379217036</v>
+        <v>460.4910241367928</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1980.060224942639</v>
       </c>
       <c r="D32" t="n">
-        <v>1625.789630302068</v>
+        <v>1625.789630302067</v>
       </c>
       <c r="E32" t="n">
         <v>1243.996481670002</v>
       </c>
       <c r="F32" t="n">
-        <v>837.005680846573</v>
+        <v>837.0056808465727</v>
       </c>
       <c r="G32" t="n">
-        <v>425.9283346577466</v>
+        <v>425.9283346577477</v>
       </c>
       <c r="H32" t="n">
-        <v>132.3398382326924</v>
+        <v>132.3398382326925</v>
       </c>
       <c r="I32" t="n">
-        <v>94.33804343833975</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J32" t="n">
         <v>450.6228234177182</v>
       </c>
       <c r="K32" t="n">
-        <v>1105.346155553018</v>
+        <v>883.2452973532938</v>
       </c>
       <c r="L32" t="n">
-        <v>1556.380368801426</v>
+        <v>1334.279510601702</v>
       </c>
       <c r="M32" t="n">
-        <v>2089.912273473351</v>
+        <v>2312.829813431531</v>
       </c>
       <c r="N32" t="n">
-        <v>2636.691090532133</v>
+        <v>2859.608630490313</v>
       </c>
       <c r="O32" t="n">
-        <v>3420.992559729999</v>
+        <v>3739.573280819768</v>
       </c>
       <c r="P32" t="n">
         <v>4134.347647176945</v>
@@ -6722,7 +6722,7 @@
         <v>4592.825849685933</v>
       </c>
       <c r="R32" t="n">
-        <v>4716.902171916988</v>
+        <v>4716.902171916989</v>
       </c>
       <c r="S32" t="n">
         <v>4610.606607410262</v>
@@ -6731,19 +6731,19 @@
         <v>4408.623963760662</v>
       </c>
       <c r="U32" t="n">
-        <v>4159.088591000677</v>
+        <v>4159.088591000678</v>
       </c>
       <c r="V32" t="n">
-        <v>3832.020807623285</v>
+        <v>3832.020807623286</v>
       </c>
       <c r="W32" t="n">
-        <v>3483.24725631935</v>
+        <v>3483.247256319351</v>
       </c>
       <c r="X32" t="n">
-        <v>3113.776602024448</v>
+        <v>3113.776602024449</v>
       </c>
       <c r="Y32" t="n">
-        <v>2727.632374014815</v>
+        <v>2727.632374014816</v>
       </c>
     </row>
     <row r="33">
@@ -6765,19 +6765,19 @@
         <v>486.7448875394313</v>
       </c>
       <c r="F33" t="n">
-        <v>340.2103295663162</v>
+        <v>340.2103295663163</v>
       </c>
       <c r="G33" t="n">
-        <v>203.8472293989343</v>
+        <v>203.8472293989344</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3453350368018</v>
+        <v>113.3453350368019</v>
       </c>
       <c r="I33" t="n">
-        <v>94.33804343833975</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J33" t="n">
-        <v>188.015312928957</v>
+        <v>188.0153129289571</v>
       </c>
       <c r="K33" t="n">
         <v>426.2795119093041</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5790361529818</v>
+        <v>403.1971120162826</v>
       </c>
       <c r="C34" t="n">
-        <v>783.6379571912535</v>
+        <v>238.2560330545543</v>
       </c>
       <c r="D34" t="n">
-        <v>637.5164217450963</v>
+        <v>238.2560330545543</v>
       </c>
       <c r="E34" t="n">
-        <v>493.5984321288818</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="F34" t="n">
-        <v>493.5984321288818</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="G34" t="n">
-        <v>329.8906994697794</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="H34" t="n">
-        <v>187.6686166538158</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="I34" t="n">
-        <v>94.33804343833975</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J34" t="n">
-        <v>143.376277282527</v>
+        <v>143.3762772825269</v>
       </c>
       <c r="K34" t="n">
         <v>351.279061628655</v>
@@ -6868,40 +6868,40 @@
         <v>1019.827108471203</v>
       </c>
       <c r="N34" t="n">
-        <v>1365.15108657432</v>
+        <v>1365.151086574319</v>
       </c>
       <c r="O34" t="n">
-        <v>1668.396286891985</v>
+        <v>1668.396286891984</v>
       </c>
       <c r="P34" t="n">
-        <v>1904.919388722896</v>
+        <v>1904.919388722895</v>
       </c>
       <c r="Q34" t="n">
-        <v>1986.445286272662</v>
+        <v>1986.445286272661</v>
       </c>
       <c r="R34" t="n">
-        <v>1972.486610797523</v>
+        <v>1986.445286272661</v>
       </c>
       <c r="S34" t="n">
-        <v>1784.795830590528</v>
+        <v>1986.445286272661</v>
       </c>
       <c r="T34" t="n">
-        <v>1567.024319126233</v>
+        <v>1768.673774808366</v>
       </c>
       <c r="U34" t="n">
-        <v>1567.024319126233</v>
+        <v>1483.566011900188</v>
       </c>
       <c r="V34" t="n">
-        <v>1567.024319126233</v>
+        <v>1232.87662766048</v>
       </c>
       <c r="W34" t="n">
-        <v>1567.024319126233</v>
+        <v>947.454561589698</v>
       </c>
       <c r="X34" t="n">
-        <v>1343.029872194394</v>
+        <v>723.4601146578589</v>
       </c>
       <c r="Y34" t="n">
-        <v>1126.232397017043</v>
+        <v>580.8504728803438</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1543.189242259775</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2623.499963990482</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>3126.472434869819</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7020,19 +7020,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659142</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7321,22 +7321,22 @@
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7388,73 +7388,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2258.463761768131</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647468</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
         <v>413.0883853676542</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698012</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899676</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257052</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913854</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415484</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643391</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7588,31 +7588,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>792.1780824632694</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1243.212295711678</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>1776.744200383602</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.523017442385</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>2826.495488321721</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,13 +7722,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803195</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415472</v>
@@ -7801,13 +7801,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982171</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>218.137287544604</v>
+        <v>232.8070029429863</v>
       </c>
       <c r="L8" t="n">
-        <v>233.3440872902948</v>
+        <v>248.6314749159773</v>
       </c>
       <c r="M8" t="n">
-        <v>242.3206423494215</v>
+        <v>227.6509269510381</v>
       </c>
       <c r="N8" t="n">
-        <v>241.9615320726346</v>
+        <v>241.961532072634</v>
       </c>
       <c r="O8" t="n">
-        <v>242.7993153609684</v>
+        <v>227.5119277352848</v>
       </c>
       <c r="P8" t="n">
-        <v>244.3130500903969</v>
+        <v>244.3130500903964</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0616863156253</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>151.8026209501516</v>
+        <v>136.5152333244682</v>
       </c>
       <c r="L9" t="n">
-        <v>152.058520245337</v>
+        <v>152.0585202453366</v>
       </c>
       <c r="M9" t="n">
-        <v>154.7227839947587</v>
+        <v>155.3404562220586</v>
       </c>
       <c r="N9" t="n">
-        <v>144.4930574233099</v>
+        <v>144.4930574233094</v>
       </c>
       <c r="O9" t="n">
-        <v>140.6421830627564</v>
+        <v>140.6421830627559</v>
       </c>
       <c r="P9" t="n">
-        <v>132.406100882431</v>
+        <v>147.0464672560297</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9334027023017</v>
+        <v>138.9334027023014</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.148387957589</v>
+        <v>149.1483879575887</v>
       </c>
       <c r="M10" t="n">
-        <v>153.1338488146763</v>
+        <v>152.5161765873757</v>
       </c>
       <c r="N10" t="n">
-        <v>141.9192732150992</v>
+        <v>141.919273215099</v>
       </c>
       <c r="O10" t="n">
-        <v>152.1530293387776</v>
+        <v>152.7707015660777</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.8489734096687</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.250402622746265</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.8489734096687</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>213.5653932826516</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>44.46877811057738</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>147.8489734096692</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.8489734096687</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>213.5653932826516</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>21.13839585591558</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158191</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>123.4719563470485</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>80.35488666587537</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,25 +10115,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>29.61882225792135</v>
+        <v>107.5040408147568</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>99.80111135932248</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>284.1707053722517</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0017854473916</v>
       </c>
       <c r="P35" t="n">
-        <v>231.1066821161381</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473918</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>167.7369666428378</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>124.5185911550055</v>
+        <v>21.74982042514887</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>21.13839585591467</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.9710754359443</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>182.320973424433</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>115.6501393473886</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>182.3209734244326</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>140.7178194537292</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>136.6721395419867</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>198.352896478027</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6861480346938293</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>136.6721395419865</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>148.8678640437851</v>
+        <v>32.92359802148761</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.67412856164287</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>78.5237607875879</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>144.6603200916956</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.4658950964144</v>
+        <v>141.4658950964145</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>162.0706553325114</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.799861987804</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>92.39726748332133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.1579110231434</v>
+        <v>84.97699974353057</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.8138724049251</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.256685279096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>248.1824903973112</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>282.5678454100741</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.44595506583808</v>
       </c>
     </row>
     <row r="35">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>919297.6638122043</v>
+        <v>919297.6638122041</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815211.4794133328</v>
+        <v>815211.4794133329</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815211.479413333</v>
+        <v>815211.4794133329</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815211.479413333</v>
+        <v>815211.4794133329</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566364.5763254355</v>
+        <v>566364.5763254357</v>
       </c>
       <c r="F2" t="n">
-        <v>566364.5763254355</v>
+        <v>566364.5763254354</v>
       </c>
       <c r="G2" t="n">
-        <v>566364.5763254351</v>
+        <v>566364.576325435</v>
       </c>
       <c r="H2" t="n">
-        <v>566364.5763254353</v>
+        <v>566364.576325435</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="L2" t="n">
-        <v>577409.306758221</v>
+        <v>577409.3067582211</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516051</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8018.753949165306</v>
+        <v>8018.753949166059</v>
       </c>
       <c r="E3" t="n">
-        <v>1169820.214567983</v>
+        <v>1169820.214567982</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34303.50260819527</v>
+        <v>34303.50260819518</v>
       </c>
       <c r="J3" t="n">
-        <v>47142.09215872955</v>
+        <v>47142.09215872969</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3164.122341213474</v>
+        <v>3164.122341213426</v>
       </c>
       <c r="M3" t="n">
-        <v>210144.9646838792</v>
+        <v>210144.9646838791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>418376.5748366918</v>
+        <v>418376.5748366916</v>
       </c>
       <c r="E4" t="n">
-        <v>62361.15708337423</v>
+        <v>62361.15708337426</v>
       </c>
       <c r="F4" t="n">
-        <v>62361.15708337423</v>
+        <v>62361.15708337427</v>
       </c>
       <c r="G4" t="n">
         <v>62361.15708337426</v>
       </c>
       <c r="H4" t="n">
-        <v>62361.15708337424</v>
+        <v>62361.15708337427</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120109</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="J4" t="n">
         <v>49388.53342030739</v>
       </c>
       <c r="K4" t="n">
-        <v>49388.5334203074</v>
+        <v>49388.53342030741</v>
       </c>
       <c r="L4" t="n">
-        <v>51691.75066197913</v>
+        <v>51691.75066197909</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120109</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120105</v>
+        <v>76652.56781120104</v>
       </c>
       <c r="O4" t="n">
         <v>76652.56781120106</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34640.31178066722</v>
+        <v>34640.31178066725</v>
       </c>
       <c r="E5" t="n">
-        <v>81534.81172802391</v>
+        <v>81534.81172802392</v>
       </c>
       <c r="F5" t="n">
-        <v>81534.81172802391</v>
+        <v>81534.81172802392</v>
       </c>
       <c r="G5" t="n">
         <v>81534.81172802392</v>
@@ -26488,25 +26488,25 @@
         <v>81534.81172802392</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>95786.55083745145</v>
+        <v>95786.55083745146</v>
       </c>
       <c r="M5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="N5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="O5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89377.94167480615</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140199.9766803214</v>
+        <v>140195.5631024534</v>
       </c>
       <c r="C6" t="n">
-        <v>140199.9766803214</v>
+        <v>140195.5631024534</v>
       </c>
       <c r="D6" t="n">
-        <v>134219.6425850812</v>
+        <v>134219.6425850799</v>
       </c>
       <c r="E6" t="n">
-        <v>-747351.6070539457</v>
+        <v>-747451.2301809316</v>
       </c>
       <c r="F6" t="n">
-        <v>422468.6075140374</v>
+        <v>422368.9843870504</v>
       </c>
       <c r="G6" t="n">
-        <v>422468.6075140369</v>
+        <v>422368.98438705</v>
       </c>
       <c r="H6" t="n">
-        <v>422468.6075140372</v>
+        <v>422368.98438705</v>
       </c>
       <c r="I6" t="n">
-        <v>394921.271057403</v>
+        <v>394921.2710574028</v>
       </c>
       <c r="J6" t="n">
-        <v>382854.447153375</v>
+        <v>382787.2516631492</v>
       </c>
       <c r="K6" t="n">
-        <v>429996.5393121045</v>
+        <v>429929.3438218789</v>
       </c>
       <c r="L6" t="n">
-        <v>426766.8829175769</v>
+        <v>426705.3450679448</v>
       </c>
       <c r="M6" t="n">
-        <v>219079.8089817188</v>
+        <v>219079.8089817191</v>
       </c>
       <c r="N6" t="n">
-        <v>429224.7736655986</v>
+        <v>429224.7736655978</v>
       </c>
       <c r="O6" t="n">
-        <v>429224.7736655985</v>
+        <v>429224.7736655982</v>
       </c>
       <c r="P6" t="n">
-        <v>429224.7736655984</v>
+        <v>429224.7736655978</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.955152926516783</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.9751366185926</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.9751366185926</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.552713678800501e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.955152926516843</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.818285001178603</v>
+        <v>3.818285001179484</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="E4" t="n">
         <v>885.3376133996967</v>
@@ -26808,7 +26808,7 @@
         <v>885.3376133996967</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1179.225542979247</v>
       </c>
       <c r="M4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="O4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1014.336461208615</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="M2" t="n">
-        <v>43.01998369207574</v>
+        <v>43.01998369207578</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.818285001178603</v>
+        <v>3.818285001179484</v>
       </c>
       <c r="E3" t="n">
-        <v>1085.95841559212</v>
+        <v>1085.958415592119</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="E4" t="n">
         <v>870.0502257740135</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.998847808918</v>
+        <v>128.9988478089176</v>
       </c>
       <c r="J4" t="n">
-        <v>180.1764693963154</v>
+        <v>180.176469396316</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>705.1611440033811</v>
+        <v>705.1611440033807</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="M4" t="n">
         <v>870.0502257740135</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.6429824465787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>397.1030976100527</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.3176000604171</v>
       </c>
       <c r="I8" t="n">
-        <v>209.8841129573087</v>
+        <v>209.8841129573085</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.64648667473771</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.333083839987534</v>
       </c>
       <c r="R8" t="n">
-        <v>148.9048954478621</v>
+        <v>133.6175078221788</v>
       </c>
       <c r="S8" t="n">
-        <v>208.6702839803585</v>
+        <v>208.6702839803584</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0286554230553</v>
+        <v>207.7412677973722</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3444249166803</v>
+        <v>244.7553396376901</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.0680526291657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27950,7 +27950,7 @@
         <v>112.1561247688305</v>
       </c>
       <c r="I9" t="n">
-        <v>89.11386363198817</v>
+        <v>89.11386363198811</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.64791299720271</v>
+        <v>99.6479129972026</v>
       </c>
       <c r="S9" t="n">
-        <v>156.2432321858907</v>
+        <v>158.0654887908721</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1316248842925</v>
+        <v>184.8442372586094</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9408417576256</v>
+        <v>210.6534541319425</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.5131995237422</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>190.4855975777944</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.3953081516213</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1465750208861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,16 +28026,16 @@
         <v>167.9840939264894</v>
       </c>
       <c r="H10" t="n">
-        <v>162.1659547577486</v>
+        <v>162.1659547577485</v>
       </c>
       <c r="I10" t="n">
         <v>155.2434112094894</v>
       </c>
       <c r="J10" t="n">
-        <v>92.87238007644055</v>
+        <v>92.87238007644044</v>
       </c>
       <c r="K10" t="n">
-        <v>6.182142195034816</v>
+        <v>21.46952982071771</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.29809459083333</v>
+        <v>70.29809459083322</v>
       </c>
       <c r="R10" t="n">
-        <v>176.9837973178936</v>
+        <v>165.4073453330248</v>
       </c>
       <c r="S10" t="n">
         <v>223.8966037361975</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9161698553216</v>
+        <v>212.6287822296385</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7422018026058</v>
+        <v>271.0312661617913</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859153</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="N19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859155</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="L22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="C32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="D32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="E32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="F32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="G32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="H32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="I32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="T32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="U32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="V32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="W32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="X32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="C34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="D34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="E34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="F34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="G34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="H34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="I34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="J34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="K34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="L34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="M34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="N34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="O34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="P34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="R34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="S34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="T34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="U34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="V34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="W34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="X34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.955152926516843</v>
+        <v>3.955152926516783</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L40" t="n">
         <v>46.97513661859256</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01534988945197427</v>
+        <v>0.01534988945197781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1572020553500316</v>
+        <v>0.1572020553500678</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5917766130972387</v>
+        <v>0.5917766130973753</v>
       </c>
       <c r="J8" t="n">
-        <v>1.302802679874503</v>
+        <v>1.302802679874803</v>
       </c>
       <c r="K8" t="n">
-        <v>1.952563500376574</v>
+        <v>1.952563500377024</v>
       </c>
       <c r="L8" t="n">
-        <v>2.422327679692432</v>
+        <v>2.422327679692991</v>
       </c>
       <c r="M8" t="n">
-        <v>2.69530627623398</v>
+        <v>2.695306276234601</v>
       </c>
       <c r="N8" t="n">
-        <v>2.738919149639402</v>
+        <v>2.738919149640033</v>
       </c>
       <c r="O8" t="n">
-        <v>2.586283686401333</v>
+        <v>2.586283686401929</v>
       </c>
       <c r="P8" t="n">
-        <v>2.207333290555717</v>
+        <v>2.207333290556226</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.657615374556888</v>
+        <v>1.65761537455727</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9642224932875798</v>
+        <v>0.9642224932878022</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3497856058868641</v>
+        <v>0.3497856058869448</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06719414107601741</v>
+        <v>0.06719414107603291</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001227991156157942</v>
+        <v>0.001227991156158225</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008212914908195488</v>
+        <v>0.00821291490819738</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07931946766599327</v>
+        <v>0.07931946766601156</v>
       </c>
       <c r="I9" t="n">
-        <v>0.282769219426906</v>
+        <v>0.2827692194269713</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7759403510413991</v>
+        <v>0.7759403510415781</v>
       </c>
       <c r="K9" t="n">
-        <v>1.326205649890497</v>
+        <v>1.326205649890803</v>
       </c>
       <c r="L9" t="n">
-        <v>1.783247160220253</v>
+        <v>1.783247160220664</v>
       </c>
       <c r="M9" t="n">
-        <v>2.080965325642338</v>
+        <v>2.080965325642818</v>
       </c>
       <c r="N9" t="n">
-        <v>2.13604228570651</v>
+        <v>2.136042285707002</v>
       </c>
       <c r="O9" t="n">
-        <v>1.954061381688073</v>
+        <v>1.954061381688523</v>
       </c>
       <c r="P9" t="n">
-        <v>1.568306531899189</v>
+        <v>1.568306531899551</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.048371383719831</v>
+        <v>1.048371383720073</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5099211554404183</v>
+        <v>0.5099211554405358</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1525512922640696</v>
+        <v>0.1525512922641048</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03310381052908618</v>
+        <v>0.03310381052909381</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0005403233492233875</v>
+        <v>0.0005403233492235121</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006885431969338465</v>
+        <v>0.006885431969340053</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06121774969102748</v>
+        <v>0.0612177496910416</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2070637177688331</v>
+        <v>0.2070637177688809</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4868000402322294</v>
+        <v>0.4868000402323417</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7999620051649596</v>
+        <v>0.799962005165144</v>
       </c>
       <c r="L10" t="n">
-        <v>1.023675949332375</v>
+        <v>1.023675949332611</v>
       </c>
       <c r="M10" t="n">
-        <v>1.079322758611847</v>
+        <v>1.079322758612095</v>
       </c>
       <c r="N10" t="n">
-        <v>1.05365887581704</v>
+        <v>1.053658875817284</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9732245114479499</v>
+        <v>0.9732245114481743</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8327616992734445</v>
+        <v>0.8327616992736365</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5765610351779691</v>
+        <v>0.5765610351781021</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3095940592758912</v>
+        <v>0.3095940592759626</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1199943007747439</v>
+        <v>0.1199943007747716</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0294195729599007</v>
+        <v>0.02941957295990749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0003755690165093712</v>
+        <v>0.0003755690165094578</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31847,7 +31847,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837924</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -32801,13 +32801,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>14.66971539838275</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="M8" t="n">
-        <v>14.66971539838275</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="O8" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.02934902478372137</v>
       </c>
       <c r="K9" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="M9" t="n">
-        <v>14.66971539838275</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="N9" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.64036637359902</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="M10" t="n">
-        <v>15.28738762568308</v>
+        <v>14.66971539838275</v>
       </c>
       <c r="N10" t="n">
-        <v>15.28738762568308</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="O10" t="n">
-        <v>14.66971539838275</v>
+        <v>15.28738762568307</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>338.6359743783812</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>456.8405170150782</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
@@ -35428,10 +35428,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35495,7 +35495,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004591</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>338.6359743783812</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>721.6183941708706</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120763</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>500.0588925029093</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>655.9019742978882</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36048,7 +36048,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120753</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>338.6359743783812</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>721.6183941708706</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165774</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629116</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36358,7 +36358,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>358.329682411316</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>785.7552219287304</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
@@ -36376,7 +36376,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36449,13 +36449,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,7 +36525,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>460.6632429024489</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>479.1168728852472</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36771,7 +36771,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>485.2089366502533</v>
+        <v>563.0941552070888</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
@@ -37002,7 +37002,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
@@ -37069,22 +37069,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>436.9923979147229</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>792.2237062604707</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.53356953958304</v>
+        <v>49.53356953958298</v>
       </c>
       <c r="K34" t="n">
         <v>210.0028124708363</v>
       </c>
       <c r="L34" t="n">
-        <v>323.7125250967149</v>
+        <v>323.7125250967148</v>
       </c>
       <c r="M34" t="n">
         <v>351.5885323200006</v>
       </c>
       <c r="N34" t="n">
-        <v>348.8120990940569</v>
+        <v>348.8120990940568</v>
       </c>
       <c r="O34" t="n">
-        <v>306.3082831491566</v>
+        <v>306.3082831491565</v>
       </c>
       <c r="P34" t="n">
         <v>238.9122240716272</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.34939146441047</v>
+        <v>82.34939146441042</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,13 +37315,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P35" t="n">
-        <v>629.8686683355097</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397237</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5312714465573</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>676.8204265679168</v>
+        <v>574.0516558380601</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>358.329682411315</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>793.2729108488555</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
